--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Timp2-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Timp2-Itga3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.998221666666667</v>
+        <v>16.19105733333333</v>
       </c>
       <c r="H2">
-        <v>20.994665</v>
+        <v>48.573172</v>
       </c>
       <c r="I2">
-        <v>0.01819620957294902</v>
+        <v>0.0401918797050022</v>
       </c>
       <c r="J2">
-        <v>0.01819620957294902</v>
+        <v>0.0401918797050022</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.77892533333333</v>
+        <v>11.25749966666667</v>
       </c>
       <c r="N2">
-        <v>38.336776</v>
+        <v>33.772499</v>
       </c>
       <c r="O2">
-        <v>0.7206984557633653</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="P2">
-        <v>0.7206984557633654</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="Q2">
-        <v>89.4297521444489</v>
+        <v>182.2708225329809</v>
       </c>
       <c r="R2">
-        <v>804.8677693000401</v>
+        <v>1640.437402796828</v>
       </c>
       <c r="S2">
-        <v>0.01311398013997092</v>
+        <v>0.02785217124926046</v>
       </c>
       <c r="T2">
-        <v>0.01311398013997092</v>
+        <v>0.02785217124926046</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.998221666666667</v>
+        <v>16.19105733333333</v>
       </c>
       <c r="H3">
-        <v>20.994665</v>
+        <v>48.573172</v>
       </c>
       <c r="I3">
-        <v>0.01819620957294902</v>
+        <v>0.0401918797050022</v>
       </c>
       <c r="J3">
-        <v>0.01819620957294902</v>
+        <v>0.0401918797050022</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9898276666666667</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N3">
         <v>2.969483</v>
       </c>
       <c r="O3">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="P3">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="Q3">
-        <v>6.927033423132777</v>
+        <v>16.02635650111956</v>
       </c>
       <c r="R3">
-        <v>62.343300808195</v>
+        <v>144.237208510076</v>
       </c>
       <c r="S3">
-        <v>0.001015780280740907</v>
+        <v>0.002448931867249969</v>
       </c>
       <c r="T3">
-        <v>0.001015780280740907</v>
+        <v>0.002448931867249969</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.998221666666667</v>
+        <v>16.19105733333333</v>
       </c>
       <c r="H4">
-        <v>20.994665</v>
+        <v>48.573172</v>
       </c>
       <c r="I4">
-        <v>0.01819620957294902</v>
+        <v>0.0401918797050022</v>
       </c>
       <c r="J4">
-        <v>0.01819620957294902</v>
+        <v>0.0401918797050022</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.932791</v>
+        <v>3.821582</v>
       </c>
       <c r="N4">
-        <v>11.798373</v>
+        <v>11.464746</v>
       </c>
       <c r="O4">
-        <v>0.2217992770602354</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="P4">
-        <v>0.2217992770602355</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="Q4">
-        <v>27.52254318667167</v>
+        <v>61.87545326603466</v>
       </c>
       <c r="R4">
-        <v>247.702888680045</v>
+        <v>556.879079394312</v>
       </c>
       <c r="S4">
-        <v>0.004035906128516628</v>
+        <v>0.009454973080945946</v>
       </c>
       <c r="T4">
-        <v>0.004035906128516628</v>
+        <v>0.009454973080945946</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.998221666666667</v>
+        <v>16.19105733333333</v>
       </c>
       <c r="H5">
-        <v>20.994665</v>
+        <v>48.573172</v>
       </c>
       <c r="I5">
-        <v>0.01819620957294902</v>
+        <v>0.0401918797050022</v>
       </c>
       <c r="J5">
-        <v>0.01819620957294902</v>
+        <v>0.0401918797050022</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.02976266666666667</v>
+        <v>0.1761463333333333</v>
       </c>
       <c r="N5">
-        <v>0.08928800000000001</v>
+        <v>0.528439</v>
       </c>
       <c r="O5">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481826</v>
       </c>
       <c r="P5">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481827</v>
       </c>
       <c r="Q5">
-        <v>0.2082857387244445</v>
+        <v>2.851995382056444</v>
       </c>
       <c r="R5">
-        <v>1.87457164852</v>
+        <v>25.667958438508</v>
       </c>
       <c r="S5">
-        <v>3.054302372055813E-05</v>
+        <v>0.0004358035075458274</v>
       </c>
       <c r="T5">
-        <v>3.054302372055814E-05</v>
+        <v>0.0004358035075458274</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>767.098084</v>
       </c>
       <c r="I6">
-        <v>0.6648487841778684</v>
+        <v>0.6347354443738135</v>
       </c>
       <c r="J6">
-        <v>0.6648487841778684</v>
+        <v>0.6347354443738134</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.77892533333333</v>
+        <v>11.25749966666667</v>
       </c>
       <c r="N6">
-        <v>38.336776</v>
+        <v>33.772499</v>
       </c>
       <c r="O6">
-        <v>0.7206984557633653</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="P6">
-        <v>0.7206984557633654</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="Q6">
-        <v>3267.563046259687</v>
+        <v>2878.535474976879</v>
       </c>
       <c r="R6">
-        <v>29408.06741633718</v>
+        <v>25906.81927479191</v>
       </c>
       <c r="S6">
-        <v>0.4791554920731407</v>
+        <v>0.4398590069544477</v>
       </c>
       <c r="T6">
-        <v>0.4791554920731408</v>
+        <v>0.4398590069544476</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>767.098084</v>
       </c>
       <c r="I7">
-        <v>0.6648487841778684</v>
+        <v>0.6347354443738135</v>
       </c>
       <c r="J7">
-        <v>0.6648487841778684</v>
+        <v>0.6347354443738134</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9898276666666667</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N7">
         <v>2.969483</v>
       </c>
       <c r="O7">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="P7">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="Q7">
         <v>253.0983021967302</v>
@@ -883,10 +883,10 @@
         <v>2277.884719770572</v>
       </c>
       <c r="S7">
-        <v>0.03711433867229279</v>
+        <v>0.03867507238798392</v>
       </c>
       <c r="T7">
-        <v>0.03711433867229279</v>
+        <v>0.03867507238798391</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>767.098084</v>
       </c>
       <c r="I8">
-        <v>0.6648487841778684</v>
+        <v>0.6347354443738135</v>
       </c>
       <c r="J8">
-        <v>0.6648487841778684</v>
+        <v>0.6347354443738134</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.932791</v>
+        <v>3.821582</v>
       </c>
       <c r="N8">
-        <v>11.798373</v>
+        <v>11.464746</v>
       </c>
       <c r="O8">
-        <v>0.2217992770602354</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="P8">
-        <v>0.2217992770602355</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="Q8">
-        <v>1005.612146957481</v>
+        <v>977.1760766829625</v>
       </c>
       <c r="R8">
-        <v>9050.509322617332</v>
+        <v>8794.584690146663</v>
       </c>
       <c r="S8">
-        <v>0.1474629796850277</v>
+        <v>0.1493188819265337</v>
       </c>
       <c r="T8">
-        <v>0.1474629796850278</v>
+        <v>0.1493188819265337</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>767.098084</v>
       </c>
       <c r="I9">
-        <v>0.6648487841778684</v>
+        <v>0.6347354443738135</v>
       </c>
       <c r="J9">
-        <v>0.6648487841778684</v>
+        <v>0.6347354443738134</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02976266666666667</v>
+        <v>0.1761463333333333</v>
       </c>
       <c r="N9">
-        <v>0.08928800000000001</v>
+        <v>0.528439</v>
       </c>
       <c r="O9">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481826</v>
       </c>
       <c r="P9">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481827</v>
       </c>
       <c r="Q9">
-        <v>7.610294858243556</v>
+        <v>45.04050493454177</v>
       </c>
       <c r="R9">
-        <v>68.492653724192</v>
+        <v>405.364544410876</v>
       </c>
       <c r="S9">
-        <v>0.001115973747407101</v>
+        <v>0.00688248310484816</v>
       </c>
       <c r="T9">
-        <v>0.001115973747407101</v>
+        <v>0.006882483104848161</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>37.18048166666667</v>
+        <v>57.51647566666667</v>
       </c>
       <c r="H10">
-        <v>111.541445</v>
+        <v>172.549427</v>
       </c>
       <c r="I10">
-        <v>0.09667367920800671</v>
+        <v>0.142776053685583</v>
       </c>
       <c r="J10">
-        <v>0.09667367920800671</v>
+        <v>0.142776053685583</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.77892533333333</v>
+        <v>11.25749966666667</v>
       </c>
       <c r="N10">
-        <v>38.336776</v>
+        <v>33.772499</v>
       </c>
       <c r="O10">
-        <v>0.7206984557633653</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="P10">
-        <v>0.7206984557633654</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="Q10">
-        <v>475.1265990757022</v>
+        <v>647.4917056453414</v>
       </c>
       <c r="R10">
-        <v>4276.139391681319</v>
+        <v>5827.425350808073</v>
       </c>
       <c r="S10">
-        <v>0.06967257131817339</v>
+        <v>0.0989409583908946</v>
       </c>
       <c r="T10">
-        <v>0.06967257131817341</v>
+        <v>0.09894095839089459</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>37.18048166666667</v>
+        <v>57.51647566666667</v>
       </c>
       <c r="H11">
-        <v>111.541445</v>
+        <v>172.549427</v>
       </c>
       <c r="I11">
-        <v>0.09667367920800671</v>
+        <v>0.142776053685583</v>
       </c>
       <c r="J11">
-        <v>0.09667367920800671</v>
+        <v>0.142776053685583</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9898276666666667</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N11">
         <v>2.969483</v>
       </c>
       <c r="O11">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="P11">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="Q11">
-        <v>36.80226941365945</v>
+        <v>56.93139890402679</v>
       </c>
       <c r="R11">
-        <v>331.220424722935</v>
+        <v>512.3825901362411</v>
       </c>
       <c r="S11">
-        <v>0.00539668531583364</v>
+        <v>0.008699489307719542</v>
       </c>
       <c r="T11">
-        <v>0.00539668531583364</v>
+        <v>0.008699489307719542</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>37.18048166666667</v>
+        <v>57.51647566666667</v>
       </c>
       <c r="H12">
-        <v>111.541445</v>
+        <v>172.549427</v>
       </c>
       <c r="I12">
-        <v>0.09667367920800671</v>
+        <v>0.142776053685583</v>
       </c>
       <c r="J12">
-        <v>0.09667367920800671</v>
+        <v>0.142776053685583</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.932791</v>
+        <v>3.821582</v>
       </c>
       <c r="N12">
-        <v>11.798373</v>
+        <v>11.464746</v>
       </c>
       <c r="O12">
-        <v>0.2217992770602354</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="P12">
-        <v>0.2217992770602355</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="Q12">
-        <v>146.2230636743317</v>
+        <v>219.8039281111713</v>
       </c>
       <c r="R12">
-        <v>1316.007573068985</v>
+        <v>1978.235353000542</v>
       </c>
       <c r="S12">
-        <v>0.021442152159089</v>
+        <v>0.03358747473641721</v>
       </c>
       <c r="T12">
-        <v>0.02144215215908901</v>
+        <v>0.0335874747364172</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>37.18048166666667</v>
+        <v>57.51647566666667</v>
       </c>
       <c r="H13">
-        <v>111.541445</v>
+        <v>172.549427</v>
       </c>
       <c r="I13">
-        <v>0.09667367920800671</v>
+        <v>0.142776053685583</v>
       </c>
       <c r="J13">
-        <v>0.09667367920800671</v>
+        <v>0.142776053685583</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.02976266666666667</v>
+        <v>0.1761463333333333</v>
       </c>
       <c r="N13">
-        <v>0.08928800000000001</v>
+        <v>0.528439</v>
       </c>
       <c r="O13">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481826</v>
       </c>
       <c r="P13">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481827</v>
       </c>
       <c r="Q13">
-        <v>1.106590282351111</v>
+        <v>10.13131629493922</v>
       </c>
       <c r="R13">
-        <v>9.959312541160001</v>
+        <v>91.181846654453</v>
       </c>
       <c r="S13">
-        <v>0.0001622704149106609</v>
+        <v>0.001548131250551697</v>
       </c>
       <c r="T13">
-        <v>0.0001622704149106609</v>
+        <v>0.001548131250551698</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>84.71970766666668</v>
+        <v>73.43709933333334</v>
       </c>
       <c r="H14">
-        <v>254.159123</v>
+        <v>220.311298</v>
       </c>
       <c r="I14">
-        <v>0.2202813270411758</v>
+        <v>0.1822966222356014</v>
       </c>
       <c r="J14">
-        <v>0.2202813270411758</v>
+        <v>0.1822966222356014</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.77892533333333</v>
+        <v>11.25749966666667</v>
       </c>
       <c r="N14">
-        <v>38.336776</v>
+        <v>33.772499</v>
       </c>
       <c r="O14">
-        <v>0.7206984557633653</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="P14">
-        <v>0.7206984557633654</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="Q14">
-        <v>1082.626818534161</v>
+        <v>826.7181212659668</v>
       </c>
       <c r="R14">
-        <v>9743.641366807449</v>
+        <v>7440.463091393701</v>
       </c>
       <c r="S14">
-        <v>0.1587564122320803</v>
+        <v>0.1263279243950313</v>
       </c>
       <c r="T14">
-        <v>0.1587564122320803</v>
+        <v>0.1263279243950313</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>84.71970766666668</v>
+        <v>73.43709933333334</v>
       </c>
       <c r="H15">
-        <v>254.159123</v>
+        <v>220.311298</v>
       </c>
       <c r="I15">
-        <v>0.2202813270411758</v>
+        <v>0.1822966222356014</v>
       </c>
       <c r="J15">
-        <v>0.2202813270411758</v>
+        <v>0.1822966222356014</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9898276666666667</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N15">
         <v>2.969483</v>
       </c>
       <c r="O15">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="P15">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="Q15">
-        <v>83.85791056037878</v>
+        <v>72.69007267988157</v>
       </c>
       <c r="R15">
-        <v>754.721195043409</v>
+        <v>654.210654118934</v>
       </c>
       <c r="S15">
-        <v>0.01229692520999039</v>
+        <v>0.01110751750755344</v>
       </c>
       <c r="T15">
-        <v>0.01229692520999039</v>
+        <v>0.01110751750755343</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>84.71970766666668</v>
+        <v>73.43709933333334</v>
       </c>
       <c r="H16">
-        <v>254.159123</v>
+        <v>220.311298</v>
       </c>
       <c r="I16">
-        <v>0.2202813270411758</v>
+        <v>0.1822966222356014</v>
       </c>
       <c r="J16">
-        <v>0.2202813270411758</v>
+        <v>0.1822966222356014</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.932791</v>
+        <v>3.821582</v>
       </c>
       <c r="N16">
-        <v>11.798373</v>
+        <v>11.464746</v>
       </c>
       <c r="O16">
-        <v>0.2217992770602354</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="P16">
-        <v>0.2217992770602355</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="Q16">
-        <v>333.1849038340977</v>
+        <v>280.6458969444786</v>
       </c>
       <c r="R16">
-        <v>2998.66413450688</v>
+        <v>2525.813072500308</v>
       </c>
       <c r="S16">
-        <v>0.04885823908760209</v>
+        <v>0.04288452465114406</v>
       </c>
       <c r="T16">
-        <v>0.0488582390876021</v>
+        <v>0.04288452465114406</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>84.71970766666668</v>
+        <v>73.43709933333334</v>
       </c>
       <c r="H17">
-        <v>254.159123</v>
+        <v>220.311298</v>
       </c>
       <c r="I17">
-        <v>0.2202813270411758</v>
+        <v>0.1822966222356014</v>
       </c>
       <c r="J17">
-        <v>0.2202813270411758</v>
+        <v>0.1822966222356014</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.02976266666666667</v>
+        <v>0.1761463333333333</v>
       </c>
       <c r="N17">
-        <v>0.08928800000000001</v>
+        <v>0.528439</v>
       </c>
       <c r="O17">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481826</v>
       </c>
       <c r="P17">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481827</v>
       </c>
       <c r="Q17">
-        <v>2.521484419380445</v>
+        <v>12.93567577820244</v>
       </c>
       <c r="R17">
-        <v>22.693359774424</v>
+        <v>116.421082003822</v>
       </c>
       <c r="S17">
-        <v>0.0003697505115030535</v>
+        <v>0.001976655681872578</v>
       </c>
       <c r="T17">
-        <v>0.0003697505115030535</v>
+        <v>0.001976655681872578</v>
       </c>
     </row>
   </sheetData>
